--- a/Assets/ThirdTalk/Resources/story/2.xlsx
+++ b/Assets/ThirdTalk/Resources/story/2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13387" windowHeight="9855"/>
+    <workbookView windowWidth="22192" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>bg1.jpg</t>
-  </si>
-  <si>
-    <t>bg2.jpg</t>
+    <t>5.jpg</t>
   </si>
 </sst>
 </file>
@@ -965,13 +962,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.2743362831858"/>
   </cols>
@@ -979,11 +976,6 @@
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
